--- a/trunk/Casos_de_Uso_v.0.5.xlsx
+++ b/trunk/Casos_de_Uso_v.0.5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>Inicializar Partida</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Comprar propiedad</t>
   </si>
   <si>
-    <t>Caer en casilla especial (arca comunal, casualidad).</t>
-  </si>
-  <si>
     <t>Vender trago al banco</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>pf term.</t>
   </si>
   <si>
-    <t>Escoger ficha</t>
-  </si>
-  <si>
     <t>Faltan: 16 cu</t>
   </si>
   <si>
@@ -259,6 +253,36 @@
   </si>
   <si>
     <t>Hechas: 31 cu</t>
+  </si>
+  <si>
+    <t>Evaluar  casilla especial (arca comunal, casualidad).</t>
+  </si>
+  <si>
+    <t>Lanzar Dados</t>
+  </si>
+  <si>
+    <t>Asignar Propiedad a un Jugador</t>
+  </si>
+  <si>
+    <t>Asignar Trago a Jugador</t>
+  </si>
+  <si>
+    <t>Comprar Trago a Jugador</t>
+  </si>
+  <si>
+    <t>Pagar Hipoteca</t>
+  </si>
+  <si>
+    <t>Declarar Banca Rota</t>
+  </si>
+  <si>
+    <t>Deshabilitar Tablero</t>
+  </si>
+  <si>
+    <t>Acciòn De Pago</t>
+  </si>
+  <si>
+    <t>Vender bien Raìz.</t>
   </si>
 </sst>
 </file>
@@ -302,7 +326,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +399,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -427,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -487,6 +517,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +530,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,13 +814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L59"/>
+  <dimension ref="A3:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -798,7 +831,7 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -829,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
@@ -844,7 +877,7 @@
       <c r="A5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -858,14 +891,14 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -877,7 +910,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
@@ -889,7 +922,7 @@
       <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="39">
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -903,14 +936,14 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -924,15 +957,15 @@
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="10">
-        <f t="shared" ref="B9:B24" si="0">B8+1</f>
+      <c r="B9" s="39">
+        <f t="shared" ref="B9:B23" si="0">B8+1</f>
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -944,7 +977,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -954,7 +987,7 @@
       <c r="A10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -967,7 +1000,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -977,7 +1010,7 @@
       <c r="A11" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -990,7 +1023,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1000,7 +1033,7 @@
       <c r="A12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1021,7 +1054,7 @@
       <c r="A13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1042,8 +1075,8 @@
       <c r="A14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
+      <c r="B14" s="39">
+        <f>B13+1</f>
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1063,7 +1096,7 @@
       <c r="A15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1084,12 +1117,12 @@
       <c r="A16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="19">
@@ -1097,7 +1130,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1107,7 +1140,7 @@
       <c r="A17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="39">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1120,7 +1153,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1153,7 +1186,7 @@
       <c r="A19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1187,7 +1220,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1210,7 +1243,7 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1230,14 +1263,14 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1255,12 +1288,12 @@
       <c r="A24" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="10">
-        <f t="shared" si="0"/>
+      <c r="B24" s="39">
+        <f>B23+1</f>
         <v>20</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="26">
@@ -1273,7 +1306,7 @@
       <c r="A25" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="39">
         <f>B24+1</f>
         <v>21</v>
       </c>
@@ -1288,15 +1321,15 @@
         <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="10">
-        <f t="shared" ref="B26:B54" si="1">B25+1</f>
+      <c r="B26" s="39">
+        <f t="shared" ref="B26:B60" si="1">B25+1</f>
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1312,15 +1345,15 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="10">
-        <f t="shared" si="1"/>
+      <c r="B27" s="39">
+        <f>B26+1</f>
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1332,19 +1365,19 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="10">
-        <f t="shared" si="1"/>
+      <c r="B28" s="39">
+        <f>B27+1</f>
         <v>24</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9">
@@ -1352,15 +1385,15 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="10">
-        <f t="shared" si="1"/>
+      <c r="B29" s="39">
+        <f>B28+1</f>
         <v>25</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -1377,7 +1410,7 @@
       <c r="A30" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="39">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -1410,14 +1443,14 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="39">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -1430,14 +1463,14 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="39">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -1450,7 +1483,7 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1470,15 +1503,15 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" si="1"/>
+      <c r="B35" s="39">
+        <f>B34+1</f>
         <v>31</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -1490,7 +1523,7 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,7 +1535,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="9">
@@ -1510,14 +1543,14 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="39">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -1535,12 +1568,12 @@
       <c r="A38" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="39">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29">
@@ -1553,12 +1586,12 @@
       <c r="A39" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="39">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="29">
@@ -1571,7 +1604,7 @@
       <c r="A40" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="39">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -1584,14 +1617,14 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="39">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -1606,14 +1639,14 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="39">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -1626,14 +1659,14 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="39">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -1664,15 +1697,15 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="10">
-        <f t="shared" si="1"/>
+      <c r="B45" s="39">
+        <f>B44+1</f>
         <v>41</v>
       </c>
       <c r="C45" s="18" t="s">
@@ -1702,15 +1735,15 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="10">
-        <f t="shared" si="1"/>
+      <c r="B47" s="39">
+        <f>B46+1</f>
         <v>43</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -1722,14 +1755,14 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="39">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -1742,19 +1775,19 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="10">
-        <f t="shared" si="1"/>
+      <c r="B49" s="39">
+        <f>B48+1</f>
         <v>45</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="24">
@@ -1767,12 +1800,12 @@
       <c r="A50" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="39">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="19">
@@ -1780,16 +1813,16 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="B51" s="10">
+      <c r="B51" s="39">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="19">
@@ -1797,79 +1830,150 @@
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="B52" s="10">
+      <c r="B52" s="39">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="B53" s="10">
+      <c r="B53" s="39">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="B54" s="10">
+      <c r="B54" s="39">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="39">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
     <row r="56" spans="1:7">
+      <c r="B56" s="39">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
       <c r="C56" s="14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="C57" s="23" t="s">
-        <v>70</v>
+      <c r="B57" s="39">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="C58" s="21" t="s">
-        <v>68</v>
+      <c r="B58" s="39">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="C59" s="22" t="s">
-        <v>69</v>
+      <c r="B59" s="39">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="C62" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:F4">
@@ -1888,7 +1992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1900,7 +2004,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Casos_de_Uso_v.0.5.xlsx
+++ b/trunk/Casos_de_Uso_v.0.5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Inicializar Partida</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Completar vuelta al tablero.</t>
   </si>
   <si>
-    <t>Licitar hipoteca.</t>
-  </si>
-  <si>
     <t>Perder turno.</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>Hipotecar Propiedad</t>
-  </si>
-  <si>
-    <t>colocar precio base (banco), Subastar</t>
   </si>
   <si>
     <t>Salir de la cárcel</t>
@@ -457,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -507,7 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -814,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L64"/>
+  <dimension ref="A3:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -831,11 +824,11 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -847,62 +840,62 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="39">
+        <v>52</v>
+      </c>
+      <c r="B5" s="38">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="9">
         <v>5</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="39">
+        <v>52</v>
+      </c>
+      <c r="B6" s="38">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9">
@@ -910,66 +903,66 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="39">
+        <v>52</v>
+      </c>
+      <c r="B7" s="38">
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="39">
+        <v>51</v>
+      </c>
+      <c r="B8" s="38">
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="9">
         <v>5</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="39">
-        <f t="shared" ref="B9:B23" si="0">B8+1</f>
+        <v>52</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" ref="B9:B22" si="0">B8+1</f>
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="9">
@@ -977,7 +970,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -985,14 +978,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="39">
+        <v>52</v>
+      </c>
+      <c r="B10" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="9">
@@ -1000,7 +993,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1008,14 +1001,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="39">
+        <v>51</v>
+      </c>
+      <c r="B11" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="9">
@@ -1023,7 +1016,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1031,14 +1024,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="39">
+        <v>51</v>
+      </c>
+      <c r="B12" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="24">
@@ -1052,14 +1045,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="39">
+        <v>51</v>
+      </c>
+      <c r="B13" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="24">
@@ -1073,14 +1066,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="39">
+        <v>51</v>
+      </c>
+      <c r="B14" s="38">
         <f>B13+1</f>
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="26">
@@ -1094,14 +1087,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="39">
+        <v>52</v>
+      </c>
+      <c r="B15" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="26">
@@ -1115,14 +1108,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="39">
+        <v>51</v>
+      </c>
+      <c r="B16" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="19">
@@ -1130,7 +1123,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1138,14 +1131,14 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="39">
+        <v>51</v>
+      </c>
+      <c r="B17" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="9">
@@ -1153,7 +1146,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1161,203 +1154,201 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="10">
-        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="38">
         <v>14</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="C18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="26">
         <v>4</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="39">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="26">
+      <c r="D19" s="18"/>
+      <c r="E19" s="33">
         <v>4</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>36</v>
+      <c r="C20" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>4</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="2"/>
+      <c r="G20" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="34">
+      <c r="C21" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9">
         <v>4</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="10">
+        <v>51</v>
+      </c>
+      <c r="B22" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9">
+      <c r="C22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="24">
         <v>4</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="39">
-        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B23" s="38">
+        <f>B22+1</f>
         <v>19</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="24">
+      <c r="C23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="26">
         <v>4</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="39">
+        <v>51</v>
+      </c>
+      <c r="B24" s="38">
         <f>B23+1</f>
         <v>20</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="26">
-        <v>4</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="C24" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="39">
-        <f>B24+1</f>
+        <v>52</v>
+      </c>
+      <c r="B25" s="38">
+        <f t="shared" ref="B25:B58" si="1">B24+1</f>
         <v>21</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="9">
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="39">
-        <f t="shared" ref="B26:B60" si="1">B25+1</f>
+        <v>52</v>
+      </c>
+      <c r="B26" s="38">
+        <f>B25+1</f>
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="9">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>63</v>
+      <c r="F26" s="3"/>
+      <c r="G26" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="39">
+        <v>52</v>
+      </c>
+      <c r="B27" s="38">
         <f>B26+1</f>
         <v>23</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
+      <c r="C27" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="9">
@@ -1365,77 +1356,77 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="39">
+        <v>52</v>
+      </c>
+      <c r="B28" s="38">
         <f>B27+1</f>
         <v>24</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9">
+      <c r="C28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29">
         <v>3</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="39">
-        <f>B28+1</f>
+        <v>52</v>
+      </c>
+      <c r="B29" s="38">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29">
+      <c r="C29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="24">
         <v>3</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="39">
+        <v>52</v>
+      </c>
+      <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="24">
+      <c r="C30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="9">
         <v>3</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="16"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="10">
+        <v>52</v>
+      </c>
+      <c r="B31" s="38">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>50</v>
+      <c r="C31" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="9">
@@ -1443,59 +1434,59 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="39">
+      <c r="A32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="38">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>33</v>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="9">
         <v>3</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="14" t="s">
-        <v>63</v>
+      <c r="G32" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="39">
+      <c r="A33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
+      <c r="C33" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="9">
         <v>3</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>63</v>
+      <c r="G33" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="10">
-        <f t="shared" si="1"/>
+      <c r="A34" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="38">
+        <f>B33+1</f>
         <v>30</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>19</v>
+      <c r="C34" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="9">
@@ -1503,59 +1494,57 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="39">
-        <f>B34+1</f>
+        <v>51</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>44</v>
+      <c r="C35" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="9">
         <v>3</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="14" t="s">
-        <v>63</v>
+      <c r="G35" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="10">
+        <v>51</v>
+      </c>
+      <c r="B36" s="38">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="9">
+      <c r="C36" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29">
         <v>3</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="39">
+        <v>51</v>
+      </c>
+      <c r="B37" s="38">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29">
@@ -1566,14 +1555,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="39">
+        <v>51</v>
+      </c>
+      <c r="B38" s="38">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29">
@@ -1584,170 +1573,172 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="39">
+        <v>51</v>
+      </c>
+      <c r="B39" s="38">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29">
-        <v>3</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="C39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="39">
+        <v>52</v>
+      </c>
+      <c r="B40" s="38">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E40" s="9">
         <v>2</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="39">
+        <v>52</v>
+      </c>
+      <c r="B41" s="38">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="9">
         <v>2</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="39">
+        <v>52</v>
+      </c>
+      <c r="B42" s="38">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="9">
+      <c r="C42" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29">
         <v>2</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="39">
+        <v>52</v>
+      </c>
+      <c r="B43" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29">
+      <c r="C43" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9">
         <v>2</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="10">
-        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B44" s="38">
+        <f>B43+1</f>
         <v>40</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="9">
+      <c r="C44" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="26">
         <v>2</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="39">
-        <f>B44+1</f>
+        <v>51</v>
+      </c>
+      <c r="B45" s="10">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="26">
+      <c r="C45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="9">
         <v>2</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="10">
-        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B46" s="38">
+        <f>B45+1</f>
         <v>42</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>43</v>
+      <c r="C46" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="39">
-        <f>B46+1</f>
+        <v>52</v>
+      </c>
+      <c r="B47" s="38">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="9">
@@ -1755,91 +1746,87 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="39">
-        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B48" s="38">
+        <f>B47+1</f>
         <v>44</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="9">
+      <c r="C48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="24">
         <v>1</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="39">
-        <f>B48+1</f>
+        <v>51</v>
+      </c>
+      <c r="B49" s="38">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="24">
+      <c r="C49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="19">
         <v>1</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="39">
+        <v>51</v>
+      </c>
+      <c r="B50" s="38">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="19">
         <v>1</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="B51" s="39">
+      <c r="B51" s="38">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="38">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="19">
-        <v>1</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="39">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -1847,12 +1834,12 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="B53" s="39">
+      <c r="B53" s="38">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -1860,12 +1847,12 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="B54" s="39">
+      <c r="B54" s="38">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -1873,12 +1860,12 @@
       <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="B55" s="39">
+      <c r="B55" s="38">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -1886,12 +1873,12 @@
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="B56" s="39">
+      <c r="B56" s="38">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -1899,12 +1886,12 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="B57" s="39">
+      <c r="B57" s="38">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -1912,68 +1899,55 @@
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="B58" s="39">
+      <c r="B58" s="38">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="39">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+    <row r="60" spans="1:7">
+      <c r="C60" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="C61" s="14" t="s">
-        <v>66</v>
+      <c r="C61" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="C62" s="23" t="s">
-        <v>69</v>
+      <c r="C62" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="C63" s="21" t="s">
-        <v>67</v>
+      <c r="C63" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="C64" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="3"/>
+      <c r="F63" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:F4">
@@ -1992,7 +1966,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2004,7 +1978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
